--- a/DataExcel/LinkageSaver.xlsx
+++ b/DataExcel/LinkageSaver.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nobu\main\Android-Automation\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E43FAE4-F05C-42DA-A2EA-A8874D680272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C8A75D-EF6A-4868-AB7F-4D7809A88E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{778B2BA3-57B0-7241-953C-D30B760805A6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Scenario</t>
   </si>
@@ -115,17 +115,20 @@
     <t>Fakhri@@@</t>
   </si>
   <si>
-    <t>5047103000000386</t>
-  </si>
-  <si>
     <t>5047103000000110</t>
+  </si>
+  <si>
+    <t>5368973000001597</t>
+  </si>
+  <si>
+    <t>081110</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,6 +145,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,11 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,7 +499,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -545,11 +555,11 @@
       <c r="C2">
         <v>10110229777</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2">
-        <v>537243</v>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -560,13 +570,13 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>10110229111</v>
+        <v>10110235013</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>537243</v>
+        <v>27</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -577,10 +587,10 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>10110229111</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>10110235013</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E4">
         <v>111111</v>
@@ -594,13 +604,13 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>10110229111</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5">
-        <v>537243</v>
+        <v>10110235013</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F5">
         <v>888888</v>
@@ -614,13 +624,13 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>10110229111</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>537243</v>
+        <v>10110235013</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F6">
         <v>999999</v>
@@ -640,13 +650,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>10110229111</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>537243</v>
+        <v>10110235013</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F7">
         <v>999999</v>
@@ -672,13 +682,13 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>10110229111</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>537243</v>
+        <v>10110235013</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F8">
         <v>999999</v>
@@ -704,13 +714,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>10110229111</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>537243</v>
+        <v>10110235013</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F9">
         <v>999999</v>
@@ -736,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>10110229111</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <v>537243</v>
+        <v>10110235013</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F10">
         <v>999999</v>
@@ -768,13 +778,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>10110229111</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>537243</v>
+        <v>10110235013</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F11">
         <v>999999</v>
@@ -793,6 +803,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
